--- a/src/test/resources/Documents/25904/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/25904/Base/JobPlanning.xlsx
@@ -105,6 +105,15 @@
     <t>Outer wrap  2p</t>
   </si>
   <si>
+    <t>Post-Press Cut</t>
+  </si>
+  <si>
+    <t>Final Trim</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Print F 2x0</t>
   </si>
   <si>
@@ -133,15 +142,6 @@
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>Post-Press Cut</t>
-  </si>
-  <si>
-    <t>Final Trim</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>Plate - Outer wrap  2p</t>
@@ -1045,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="M5" t="s" s="53">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="55">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="56">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="57">
         <v>34</v>
-      </c>
-      <c r="C6" t="s" s="56">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s" s="57">
-        <v>19</v>
       </c>
       <c r="E6" t="s" s="58">
         <v>18</v>
@@ -1083,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="L6" t="s" s="65">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s" s="66">
         <v>36</v>
@@ -1100,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>18</v>
@@ -1124,10 +1124,10 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s" s="79">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s" s="81">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="82">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s" s="84">
         <v>18</v>
@@ -1165,10 +1165,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
